--- a/Wjsg/Verstrekkingen.xlsx
+++ b/Wjsg/Verstrekkingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjo00577/git/ampersand-models/Wjsg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F79221-D66F-2145-93F0-80081E5E9C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2663FA1-3FC5-CE46-8FE7-4634835B63BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="419">
   <si>
     <t>Functionaris</t>
   </si>
@@ -33,9 +33,6 @@
     <t>grondslag</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0002979&amp;artikel=8</t>
-  </si>
-  <si>
     <t>Artikel 8 Wet schadefonds geweldsmisdrijven</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Artikel 11 Besluit justitiële en strafvorderlijke gegevens</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -96,24 +90,15 @@
     <t>Doel</t>
   </si>
   <si>
-    <t>werkzaamheden die de commissie bij de Wjsg zijn opgedragen</t>
-  </si>
-  <si>
     <t>handhaving van de openbare orde in verband met de terugkeer van de betrokkene in de maatschappij</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11&amp;z=2017-03-01&amp;g=2017-03-01</t>
-  </si>
-  <si>
     <t>v11</t>
   </si>
   <si>
     <t>rol2</t>
   </si>
   <si>
-    <t>artikel 6, eerste lid, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
     <t>g7-1-a</t>
   </si>
   <si>
@@ -168,39 +153,21 @@
     <t>g6-2</t>
   </si>
   <si>
-    <t>artikel 6, tweede lid, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
     <t>g6-1, g7-1-a, g7-1-b, g7-1-c, g7-1-d, g7-1-f, g7-1-j, g7-1-k, g7-1-l</t>
   </si>
   <si>
     <t>v11a-1</t>
   </si>
   <si>
-    <t>artikel 11a, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
-  </si>
-  <si>
     <t>rol3</t>
   </si>
   <si>
     <t>de burgemeester</t>
   </si>
   <si>
-    <t>de burgemeester of de door hem aangewezen ambtenaar</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11a&amp;lid=1&amp;z=2017-03-01&amp;g=2017-03-01</t>
-  </si>
-  <si>
     <t>v11a-2</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11a&amp;lid=2&amp;z=2017-03-01&amp;g=2017-03-01</t>
-  </si>
-  <si>
-    <t>artikel 11a, tweede lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
-  </si>
-  <si>
     <t>het verstrekken van informatie aan de burgemeester ten behoeve van de handhaving van de openbare orde in verband met de terugkeer van de betrokkene in de maatschappij</t>
   </si>
   <si>
@@ -210,18 +177,9 @@
     <t>rol4</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11b&amp;lid=1&amp;z=2017-03-01&amp;g=2017-03-01</t>
-  </si>
-  <si>
-    <t>artikel 11b, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
-  </si>
-  <si>
     <t>v11b-1</t>
   </si>
   <si>
-    <t>artikel 3, tweede lid, van de Wet politiegegevens</t>
-  </si>
-  <si>
     <t>g7-1-h-1</t>
   </si>
   <si>
@@ -291,48 +249,18 @@
     <t>g7-1-j-7</t>
   </si>
   <si>
-    <t>artikel 6 van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
     <t>g6</t>
   </si>
   <si>
     <t>g6, g7-1-b, g7-1-g, g7-1-h-4, g7-1-i, g7-1-j-3, g7-1-k</t>
   </si>
   <si>
-    <t>de verantwoordelijke</t>
-  </si>
-  <si>
     <t>rol5</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=1&amp;onderdeel=f&amp;z=2016-01-01&amp;g=2016-01-01</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel f, van de Wet politiegegevens</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel c, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0026117&amp;artikel=1&amp;onderdeel=c&amp;z=2013-01-01&amp;g=2013-01-01</t>
-  </si>
-  <si>
     <t>rol6</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0026117&amp;artikel=1&amp;onderdeel=c&amp;onder=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0026117&amp;artikel=1&amp;onderdeel=c&amp;onder=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0026117&amp;artikel=1&amp;onderdeel=c&amp;onder=3</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0026117&amp;artikel=1&amp;onderdeel=c&amp;onder=4</t>
-  </si>
-  <si>
     <t>de verantwoordelijke bij de Belastingdienst/Fiscale Inlichtingen- en Opsporingsdienst</t>
   </si>
   <si>
@@ -360,18 +288,6 @@
     <t>rol10</t>
   </si>
   <si>
-    <t>artikel 1, onderdeel c onder 1, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel c onder 2, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel c onder 3, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel c onder 4, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
-  </si>
-  <si>
     <t>rol11</t>
   </si>
   <si>
@@ -387,42 +303,12 @@
     <t>rol15</t>
   </si>
   <si>
-    <t>de verantwoordelijke bij de politie</t>
-  </si>
-  <si>
     <t>de verantwoordelijke bij de rijksrecherche</t>
   </si>
   <si>
     <t>de verantwoordelijke bij de Koninklijke marechaussee</t>
   </si>
   <si>
-    <t>de verantwoordelijke bij een gemeenschappelijke verwerking van politiegegevens</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=1&amp;onderdeel=f&amp;onder=4&amp;z=2016-01-01&amp;g=2016-01-01</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=1&amp;onderdeel=f&amp;onder=3&amp;z=2016-01-01&amp;g=2016-01-01</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=1&amp;onderdeel=f&amp;onder=2&amp;z=2016-01-01&amp;g=2016-01-01</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=1&amp;onderdeel=f&amp;onder=1&amp;z=2016-01-01&amp;g=2016-01-01</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel f onder 1, van de Wet politiegegevens</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel f onder 2, van de Wet politiegegevens</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel f onder 3, van de Wet politiegegevens</t>
-  </si>
-  <si>
-    <t>artikel 1, onderdeel f onder 4, van de Wet politiegegevens</t>
-  </si>
-  <si>
     <t>[Doel]</t>
   </si>
   <si>
@@ -432,30 +318,9 @@
     <t>Tekst</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=3&amp;lid=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=3&amp;lid=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=4&amp;lid=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=4&amp;lid=2</t>
-  </si>
-  <si>
-    <t>artikel 4, tweede lid, van de Wet politiegegevens</t>
-  </si>
-  <si>
     <t>tijdige verwijdering van politiegegevens</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0022463&amp;artikel=9&amp;lid=4</t>
-  </si>
-  <si>
-    <t>artikel 9, vierde lid, van de Wet politiegegevens</t>
-  </si>
-  <si>
     <t>volledigheid van politiegegevens</t>
   </si>
   <si>
@@ -486,21 +351,12 @@
     <t>gemeentelijke jeugdbeleid</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0034925&amp;hoofdstuk=2&amp;artikel=2.1</t>
-  </si>
-  <si>
     <t>Artikel 2.1 Jeugdwet</t>
   </si>
   <si>
     <t>d6</t>
   </si>
   <si>
-    <t>artikel 2.4, tweede lid, van de Jeugdwet</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0034925&amp;hoofdstuk=2&amp;artikel=2.4&amp;lid=2</t>
-  </si>
-  <si>
     <t>uitvoering van strafmaatregelen voor jeugdigen</t>
   </si>
   <si>
@@ -510,12 +366,6 @@
     <t>door het college van burgemeester en wethouders aangewezen ambtenaar of aan een door het college aangewezen en onder zijn verantwoordelijkheid werkzame functionaris</t>
   </si>
   <si>
-    <t>artikel 11c, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11c&amp;lid=1</t>
-  </si>
-  <si>
     <t>v11c</t>
   </si>
   <si>
@@ -555,45 +405,6 @@
     <t>g6-2-e</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder a, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder b, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder c, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder d, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder e, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder f, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, eerste lid onder g, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, tweede lid onder b, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, tweede lid onder c, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, tweede lid onder d, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, tweede lid onder e, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
-    <t>artikel 6, tweede lid onder f, van het Besluit justitiële gegevens</t>
-  </si>
-  <si>
     <t>g6-1-f,g7-1-j-5,g7-1-j-6</t>
   </si>
   <si>
@@ -612,18 +423,12 @@
     <t>Artikel 3 Wet op de rechtsbijstand</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0006368&amp;artikel=3</t>
-  </si>
-  <si>
     <t>d8</t>
   </si>
   <si>
     <t>terugvorderen rechtsbijstand</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0006368&amp;artikel=43&amp;lid=3</t>
-  </si>
-  <si>
     <t>Artikel 43, derde lid, Wet op de rechtsbijstand</t>
   </si>
   <si>
@@ -633,27 +438,18 @@
     <t>Artikel 11d Besluit justitiële en strafvorderlijke gegevens</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=11d&amp;z=2017-03-01&amp;g=2017-03-01</t>
-  </si>
-  <si>
     <t>g10, g11, g12</t>
   </si>
   <si>
     <t>Onze Minister</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0014194&amp;artikel=1&amp;onderdeel=j</t>
-  </si>
-  <si>
     <t>het geven van een positieve of negatieve verklaring aan buitenlandse autoriteiten over te verlenen visa</t>
   </si>
   <si>
     <t>d9</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=12&amp;lid=1&amp;onder=a</t>
-  </si>
-  <si>
     <t>Artikel 12, eerste lid onder a, Besluit justitiële en strafvorderlijke gegevens</t>
   </si>
   <si>
@@ -690,15 +486,6 @@
     <t>d03</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=12&amp;lid=1&amp;onder=b</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=12&amp;lid=1&amp;onder=c</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=12&amp;lid=1&amp;onder=d</t>
-  </si>
-  <si>
     <t>Artikel 12, eerste lid onder b, Besluit justitiële en strafvorderlijke gegevens</t>
   </si>
   <si>
@@ -729,9 +516,6 @@
     <t>d13</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=12&amp;lid=2</t>
-  </si>
-  <si>
     <t>Artikel 12, tweede lid, Besluit justitiële en strafvorderlijke gegevens</t>
   </si>
   <si>
@@ -744,169 +528,757 @@
     <t>verbijzonderd</t>
   </si>
   <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=e</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0014194&amp;artikel=10</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0014194&amp;artikel=11</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0014194&amp;artikel=12</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=a</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=b</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=c</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=d</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=e</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=f</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=g</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=a</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=b</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=c</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=d</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=e</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=b</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=c</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=d</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=f</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=4</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=5</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=4</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=5</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=6</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=7</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=l</t>
-  </si>
-  <si>
     <t>Titel</t>
   </si>
   <si>
     <t>meervoudige  input lijkt niet te werken, tijdelijk uitgezet…</t>
+  </si>
+  <si>
+    <t>Orgaan</t>
+  </si>
+  <si>
+    <t>Schadefonds geweldsmisdrijven</t>
+  </si>
+  <si>
+    <t>Gemeente</t>
+  </si>
+  <si>
+    <t>werkzaamheden die de commissie bij de Wet schadefonds geweldsmisdrijven zijn opgedragen</t>
+  </si>
+  <si>
+    <t>gegevensoort</t>
+  </si>
+  <si>
+    <t>geslachtsnaam en voorvoegsels</t>
+  </si>
+  <si>
+    <t>voornaam of voornamen</t>
+  </si>
+  <si>
+    <t>adres</t>
+  </si>
+  <si>
+    <t>geboortegemeente of geboorteplaats alsmede het land van geboorte</t>
+  </si>
+  <si>
+    <t>geboortedatum of, indien onbekend, het geboortejaar</t>
+  </si>
+  <si>
+    <t>persoonsidentificerende nummers</t>
+  </si>
+  <si>
+    <t>nationaliteit</t>
+  </si>
+  <si>
+    <t>Persoon</t>
+  </si>
+  <si>
+    <t>Rechtspersoon</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>rechtsvorm</t>
+  </si>
+  <si>
+    <t>statutaire vestigingsplaats</t>
+  </si>
+  <si>
+    <t>feitelijke plaats van vestiging, waaronder begrepen het adres en het land</t>
+  </si>
+  <si>
+    <t>nummer waaronder de onderneming overeenkomstig de Handelsregisterwet 1996 in het handelsregister is ingeschreven</t>
+  </si>
+  <si>
+    <t>Beslissing</t>
+  </si>
+  <si>
+    <t>de beslissing tot niet vervolgen omdat de betrokken persoon ten onrechte als verdachte is aangemerkt</t>
+  </si>
+  <si>
+    <t>de beslissing tot niet vervolgen na vaststelling van een rechtmatige geweldsaanwending van een ambtenaar als bedoeld in…</t>
+  </si>
+  <si>
+    <t>parketnummer</t>
+  </si>
+  <si>
+    <t>strafbepalingen van het strafbare feit</t>
+  </si>
+  <si>
+    <t>kwalificatie van het strafbare feit</t>
+  </si>
+  <si>
+    <t>de maatschappelijke classificatie van het strafbare feit</t>
+  </si>
+  <si>
+    <t>de datum waarop of periode waarin het strafbare feit zich heeft voorgedaan</t>
+  </si>
+  <si>
+    <t>indien het feit is geseponeerd</t>
+  </si>
+  <si>
+    <t>de datum van de beslissing</t>
+  </si>
+  <si>
+    <t>de sepotcode en de bijkomende sepotgrond of sepotgronden</t>
+  </si>
+  <si>
+    <t>de bij de beslissing tot voorwaardelijk seponeren gestelde voorwaarden</t>
+  </si>
+  <si>
+    <t>de datum waarop aan alle gestelde voorwaarden is voldaan</t>
+  </si>
+  <si>
+    <t>indien over het feit bij strafbeschikking is beslist</t>
+  </si>
+  <si>
+    <t>de datum waarop de strafbeschikking is uitgevaardigd</t>
+  </si>
+  <si>
+    <t>de opgelegde straffen, maatregelen en aanwijzingen</t>
+  </si>
+  <si>
+    <t>de datum waarop de strafbeschikking onherroepelijk is geworden</t>
+  </si>
+  <si>
+    <t>de datum waarop de strafbeschikking volledig ten uitvoer is gelegd</t>
+  </si>
+  <si>
+    <t>Strafbeschikking</t>
+  </si>
+  <si>
+    <t>Sepot</t>
+  </si>
+  <si>
+    <t>Zaak</t>
+  </si>
+  <si>
+    <t>Feit</t>
+  </si>
+  <si>
+    <t>Voorlopige Maatregel</t>
+  </si>
+  <si>
+    <t>indien een voorlopige maatregel op grond van de Wet op de economische delicten is opgelegd:</t>
+  </si>
+  <si>
+    <t>de aanduiding van de voorlopige maatregel</t>
+  </si>
+  <si>
+    <t>de beëindiging, verlenging, wijziging, intrekking of opheffing</t>
+  </si>
+  <si>
+    <t>Uitspraak</t>
+  </si>
+  <si>
+    <t>indien over het feit bij rechterlijke uitspraak is beslist:</t>
+  </si>
+  <si>
+    <t>het gerecht dat de uitspraak heeft gedaan</t>
+  </si>
+  <si>
+    <t>de datum van de uitspraak</t>
+  </si>
+  <si>
+    <t>de inhoud van de uitspraak, waaronder de kwalificatie van het feit en de daarbij betrokken strafbepalingen</t>
+  </si>
+  <si>
+    <t>alle voorwaarden die bij een beslissing zijn opgelegd</t>
+  </si>
+  <si>
+    <t>de datum waarop de uitspraak onherroepelijk is geworden</t>
+  </si>
+  <si>
+    <t>de datum van het vermoedelijke einde van een proeftijd</t>
+  </si>
+  <si>
+    <t>indien de rechterlijke beslissing ten uitvoer is gelegd</t>
+  </si>
+  <si>
+    <t>Tenuitvoerlegging</t>
+  </si>
+  <si>
+    <t>de datum en de wijze waarop de tenuitvoerlegging is beëindigd</t>
+  </si>
+  <si>
+    <t>de datum en de wijze waarop de taakstraf of vrijheidsstraf is aangevangen en beëindigd</t>
+  </si>
+  <si>
+    <t>indien de volledige tenuitvoerlegging niet is gerealiseerd, de datum van tenuitvoerlegging van de vervangende straf</t>
+  </si>
+  <si>
+    <t>de datum van invrijheidstelling</t>
+  </si>
+  <si>
+    <t>Invrijheidstelling</t>
+  </si>
+  <si>
+    <t>objecttype</t>
+  </si>
+  <si>
+    <t>orgaan</t>
+  </si>
+  <si>
+    <t>ambtenaar</t>
+  </si>
+  <si>
+    <t>rol2a</t>
+  </si>
+  <si>
+    <t>Landelijke eenheid van Politie</t>
+  </si>
+  <si>
+    <t>de verwerkingsverantwoordelijke</t>
+  </si>
+  <si>
+    <t>Politie</t>
+  </si>
+  <si>
+    <t>Rijksrecherche</t>
+  </si>
+  <si>
+    <t>Koninklijke Marechausse</t>
+  </si>
+  <si>
+    <t>een gemeeschappelijke verwerking door twee of meer organisaties</t>
+  </si>
+  <si>
+    <t>korpschef</t>
+  </si>
+  <si>
+    <t>Fiscale Inlichtingen- en Opsporingsdienst</t>
+  </si>
+  <si>
+    <t>Economische Controledienst</t>
+  </si>
+  <si>
+    <t>VROM Inlichtingen- en Opsporingsdienst</t>
+  </si>
+  <si>
+    <t>Dienstonderdeel Opsporing van de Algemene Inspectiedienst</t>
+  </si>
+  <si>
+    <t>Sociale Inlichtingen- en Opsporingsdienst</t>
+  </si>
+  <si>
+    <t>Raad voor Rechtsbijstand</t>
+  </si>
+  <si>
+    <t>Minister van Justitie</t>
+  </si>
+  <si>
+    <t>Artikel 4, tweede lid, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>Artikel 9, vierde lid, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>Artikel 3, tweede lid, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>Artikel 3, eerste lid, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>beslissing die door het openbaar ministerie of de rechter zijn genomen</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11&amp;z=2017-03-01&amp;g=2017-03-01</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11a&amp;lid=1&amp;z=2017-03-01&amp;g=2017-03-01</t>
+  </si>
+  <si>
+    <t>Artikel 11a, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11a&amp;lid=2&amp;z=2017-03-01&amp;g=2017-03-01</t>
+  </si>
+  <si>
+    <t>Artikel 11a, tweede lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11b&amp;lid=1&amp;z=2017-03-01&amp;g=2017-03-01</t>
+  </si>
+  <si>
+    <t>Artikel 11b, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11c&amp;lid=1</t>
+  </si>
+  <si>
+    <t>Artikel 11c, eerste lid, van het Besluit justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11d&amp;z=2017-03-01&amp;g=2017-03-01</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=12&amp;lid=1&amp;onder=a</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=12&amp;lid=1&amp;onder=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=12&amp;lid=1&amp;onder=c</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=12&amp;lid=1&amp;onder=d</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=12&amp;lid=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0002979&amp;Artikel=8</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0031788&amp;Artikel=25&amp;lid=1&amp;onderdeel=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=3&amp;lid=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=3&amp;lid=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=4&amp;lid=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=4&amp;lid=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=9&amp;lid=4</t>
+  </si>
+  <si>
+    <t>Artikel 2.4, tweede lid, van de Jeugdwet</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0006368&amp;Artikel=43&amp;lid=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11a&amp;lid=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=11a&amp;lid=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=1&amp;onderdeel=f&amp;z=2016-01-01&amp;g=2016-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel f, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=1&amp;onderdeel=f&amp;onder=1&amp;z=2016-01-01&amp;g=2016-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel f onder 1, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=1&amp;onderdeel=f&amp;onder=2&amp;z=2016-01-01&amp;g=2016-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel f onder 2, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=1&amp;onderdeel=f&amp;onder=3&amp;z=2016-01-01&amp;g=2016-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel f onder 3, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0022463&amp;Artikel=1&amp;onderdeel=f&amp;onder=4&amp;z=2016-01-01&amp;g=2016-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel f onder 4, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0026117&amp;Artikel=1&amp;onderdeel=c&amp;z=2013-01-01&amp;g=2013-01-01</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel c, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0026117&amp;Artikel=1&amp;onderdeel=c&amp;onder=1</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel c onder 1, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0026117&amp;Artikel=1&amp;onderdeel=c&amp;onder=2</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel c onder 2, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0026117&amp;Artikel=1&amp;onderdeel=c&amp;onder=3</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel c onder 3, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0026117&amp;Artikel=1&amp;onderdeel=c&amp;onder=4</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel c onder 4, van het Besluit politiegegevens bijzondere opsporingsdiensten</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0006368&amp;Artikel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;Artikel=1&amp;onderdeel=j</t>
+  </si>
+  <si>
+    <t>Artikel 1, onderdeel j van de Wet justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;Artikel=10</t>
+  </si>
+  <si>
+    <t>Artikel 10 van de Wet justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;Artikel=11</t>
+  </si>
+  <si>
+    <t>Artikel 11 van de Wet justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;Artikel=12</t>
+  </si>
+  <si>
+    <t>Artikel 12 van de Wet justitiële en strafvorderlijke gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6</t>
+  </si>
+  <si>
+    <t>Artikel 6 van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=a</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder a, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=b</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder b, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=c</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder c, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=d</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder d, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=e</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder e, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=f</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder f, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=1&amp;onder=g</t>
+  </si>
+  <si>
+    <t>Artikel 6, eerste lid onder g, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2&amp;onder=a</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid onder b, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2&amp;onder=b</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid onder c, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2&amp;onder=c</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid onder d, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2&amp;onder=d</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid onder e, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=6&amp;lid=2&amp;onder=e</t>
+  </si>
+  <si>
+    <t>Artikel 6, tweede lid onder f, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=a</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=c</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=d</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=e</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=f</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=g</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>de aanduiding dat de strafbeschikking kan worden aangemerkt als een gegeven als bedoeld in de Artikelen 10, 11 of 12 van de wet (Wjsg) alsmede de datum waarop dat gegeven niet langer als zodanig kan worden aangemerkt</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=5</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=i</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=5</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=6</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=7</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=k</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;Artikel=7&amp;lid=1&amp;onder=l</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder f, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder l, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder k, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder i, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder g, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder e, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder d, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder c, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder b, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder a, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder a, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder a, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder k, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder k, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder k, onderdeel 3, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 7, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 6, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 5, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 4, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 3, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder j, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder i, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder i, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, onderdeel 5, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, onderdeel 4, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, onderdeel 3, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder h, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder g, onderdeel 1, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder g, onderdeel 4, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder g, onderdeel 3, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>Artikel 7, eerste lid onder g, onderdeel 2, van het Besluit justitiële gegevens</t>
+  </si>
+  <si>
+    <t>rol5a</t>
+  </si>
+  <si>
+    <t>Artikel 4, eerste lid, van de Wet politiegegevens</t>
+  </si>
+  <si>
+    <t>Natuurlijke Persoon</t>
+  </si>
+  <si>
+    <t>alle attributen</t>
+  </si>
+  <si>
+    <t>Natuurlijke - of Rechtspersoon</t>
+  </si>
+  <si>
+    <t>Artikel 25, eerste lid, sub b, van de Politiewet 2012</t>
+  </si>
+  <si>
+    <t>TEKST</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0034925&amp;Artikel=2.1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0034925&amp;Artikel=2.4&amp;lid=2</t>
+  </si>
+  <si>
+    <t>[GegevenSoort,]</t>
   </si>
 </sst>
 </file>
@@ -1290,1905 +1662,2340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:G182"/>
+  <dimension ref="A4:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="4" width="42.5" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>418</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" t="s">
-        <v>170</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>415</v>
+      </c>
+      <c r="C86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>416</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="C99" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>165</v>
+      </c>
+      <c r="F105" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" t="s">
+        <v>268</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107" t="s">
+        <v>277</v>
+      </c>
+      <c r="F107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" t="s">
         <v>234</v>
       </c>
-      <c r="B101" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="E110" t="s">
+        <v>269</v>
+      </c>
+      <c r="F110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" t="s">
+        <v>279</v>
+      </c>
+      <c r="F111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112" t="s">
+        <v>281</v>
+      </c>
+      <c r="F112" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" t="s">
+        <v>283</v>
+      </c>
+      <c r="F113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" t="s">
         <v>238</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E114" t="s">
+        <v>285</v>
+      </c>
+      <c r="F114" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" t="s">
         <v>239</v>
       </c>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>28</v>
-      </c>
-      <c r="B106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>93</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="E115" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" t="s">
+        <v>409</v>
+      </c>
+      <c r="D117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" t="s">
+        <v>291</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>89</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>409</v>
+      </c>
+      <c r="D119" t="s">
+        <v>243</v>
+      </c>
+      <c r="E119" t="s">
+        <v>293</v>
+      </c>
+      <c r="F119" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
+        <v>409</v>
+      </c>
+      <c r="D120" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" t="s">
+        <v>295</v>
+      </c>
+      <c r="F120" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" t="s">
+        <v>245</v>
+      </c>
+      <c r="E121" t="s">
+        <v>297</v>
+      </c>
+      <c r="F121" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>92</v>
       </c>
-      <c r="D109" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" t="s">
-        <v>93</v>
-      </c>
-      <c r="D110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="B122" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
+        <v>260</v>
+      </c>
+      <c r="F122" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" t="s">
-        <v>122</v>
-      </c>
-      <c r="C111" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" t="s">
-        <v>93</v>
-      </c>
-      <c r="D112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D123" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123" t="s">
+        <v>299</v>
+      </c>
+      <c r="F123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" t="s">
-        <v>93</v>
-      </c>
-      <c r="D113" t="s">
-        <v>125</v>
-      </c>
-      <c r="E113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" t="s">
-        <v>97</v>
-      </c>
-      <c r="E114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>111</v>
-      </c>
-      <c r="B115" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" t="s">
-        <v>93</v>
-      </c>
-      <c r="D115" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" t="s">
-        <v>93</v>
-      </c>
-      <c r="D116" t="s">
-        <v>99</v>
-      </c>
-      <c r="E116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" t="s">
-        <v>102</v>
-      </c>
-      <c r="E119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>161</v>
-      </c>
-      <c r="D120" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" t="s">
-        <v>192</v>
-      </c>
-      <c r="D121" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" t="s">
-        <v>205</v>
-      </c>
-      <c r="D122" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>17</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>237</v>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="C129" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>231</v>
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>90</v>
-      </c>
-      <c r="B133" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>89</v>
+        <v>304</v>
+      </c>
+      <c r="E133" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>46</v>
-      </c>
-      <c r="B134" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>306</v>
+      </c>
+      <c r="E134" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="C135" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="D135" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="E135" t="s">
-        <v>177</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="C136" t="s">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="D136" t="s">
-        <v>179</v>
+        <v>310</v>
+      </c>
+      <c r="E136" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="C137" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="D137" t="s">
-        <v>180</v>
+        <v>312</v>
+      </c>
+      <c r="E137" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="D138" t="s">
-        <v>181</v>
+        <v>314</v>
+      </c>
+      <c r="E138" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D139" t="s">
-        <v>182</v>
+        <v>316</v>
+      </c>
+      <c r="E139" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="C140" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>318</v>
+      </c>
+      <c r="E140" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
+        <v>320</v>
+      </c>
+      <c r="E141" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="C142" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>322</v>
+      </c>
+      <c r="E142" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>324</v>
+      </c>
+      <c r="E143" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="C144" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="D144" t="s">
+        <v>326</v>
+      </c>
+      <c r="E144" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" t="s">
+        <v>183</v>
+      </c>
+      <c r="D145" t="s">
+        <v>328</v>
+      </c>
+      <c r="E145" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+      <c r="D146" t="s">
+        <v>330</v>
+      </c>
+      <c r="E146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>174</v>
-      </c>
-      <c r="B145" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" t="s">
-        <v>256</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C147" t="s">
+        <v>183</v>
+      </c>
+      <c r="D147" t="s">
+        <v>332</v>
+      </c>
+      <c r="E147" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>175</v>
-      </c>
-      <c r="B146" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" t="s">
-        <v>257</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" t="s">
+        <v>334</v>
+      </c>
+      <c r="E148" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>126</v>
+      </c>
+      <c r="B149" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>176</v>
-      </c>
-      <c r="B147" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" t="s">
-        <v>258</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C149" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149" t="s">
+        <v>336</v>
+      </c>
+      <c r="E149" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>252</v>
+      </c>
+      <c r="C150" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="D150" t="s">
+        <v>338</v>
+      </c>
+      <c r="E150" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" t="s">
+        <v>189</v>
+      </c>
+      <c r="D151" t="s">
+        <v>339</v>
+      </c>
+      <c r="E151" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" t="s">
+        <v>189</v>
+      </c>
+      <c r="D152" t="s">
+        <v>340</v>
+      </c>
+      <c r="E152" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" t="s">
+        <v>341</v>
+      </c>
+      <c r="E153" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" t="s">
+        <v>342</v>
+      </c>
+      <c r="E154" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>343</v>
+      </c>
+      <c r="E155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" t="s">
+        <v>344</v>
+      </c>
+      <c r="E156" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>30</v>
       </c>
-      <c r="B148" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" t="s">
+        <v>346</v>
+      </c>
+      <c r="E158" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" t="s">
+        <v>208</v>
+      </c>
+      <c r="D159" t="s">
+        <v>347</v>
+      </c>
+      <c r="E159" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" t="s">
+        <v>208</v>
+      </c>
+      <c r="D160" t="s">
+        <v>348</v>
+      </c>
+      <c r="E160" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" t="s">
+        <v>208</v>
+      </c>
+      <c r="D161" t="s">
+        <v>349</v>
+      </c>
+      <c r="E161" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>62</v>
+      </c>
+      <c r="B162" t="s">
+        <v>201</v>
+      </c>
+      <c r="C162" t="s">
+        <v>208</v>
+      </c>
+      <c r="D162" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" t="s">
+        <v>207</v>
+      </c>
+      <c r="D163" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" t="s">
+        <v>207</v>
+      </c>
+      <c r="D164" t="s">
+        <v>352</v>
+      </c>
+      <c r="E164" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" t="s">
+        <v>207</v>
+      </c>
+      <c r="D165" t="s">
+        <v>353</v>
+      </c>
+      <c r="E165" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" t="s">
+        <v>205</v>
+      </c>
+      <c r="C166" t="s">
+        <v>207</v>
+      </c>
+      <c r="D166" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167" t="s">
+        <v>206</v>
+      </c>
+      <c r="C167" t="s">
+        <v>207</v>
+      </c>
+      <c r="D167" t="s">
+        <v>355</v>
+      </c>
+      <c r="E167" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>56</v>
+      </c>
+      <c r="B168" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" t="s">
+        <v>207</v>
+      </c>
+      <c r="D168" t="s">
+        <v>357</v>
+      </c>
+      <c r="E168" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" t="s">
+        <v>211</v>
+      </c>
+      <c r="D169" t="s">
+        <v>358</v>
+      </c>
+      <c r="E169" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>63</v>
+      </c>
+      <c r="B170" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" t="s">
+        <v>211</v>
+      </c>
+      <c r="D171" t="s">
+        <v>360</v>
+      </c>
+      <c r="E171" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" t="s">
+        <v>215</v>
+      </c>
+      <c r="D172" t="s">
+        <v>361</v>
+      </c>
+      <c r="E172" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>68</v>
+      </c>
+      <c r="B173" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" t="s">
+        <v>362</v>
+      </c>
+      <c r="E173" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" t="s">
+        <v>215</v>
+      </c>
+      <c r="D174" t="s">
+        <v>363</v>
+      </c>
+      <c r="E174" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" t="s">
+        <v>215</v>
+      </c>
+      <c r="D175" t="s">
+        <v>364</v>
+      </c>
+      <c r="E175" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>71</v>
       </c>
-      <c r="B149" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B176" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" t="s">
+        <v>215</v>
+      </c>
+      <c r="D176" t="s">
+        <v>365</v>
+      </c>
+      <c r="E176" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>72</v>
       </c>
-      <c r="B150" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>33</v>
-      </c>
-      <c r="B153" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>34</v>
-      </c>
-      <c r="B154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="B177" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" t="s">
+        <v>215</v>
+      </c>
+      <c r="D177" t="s">
+        <v>366</v>
+      </c>
+      <c r="E177" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>73</v>
+      </c>
+      <c r="B178" t="s">
+        <v>222</v>
+      </c>
+      <c r="C178" t="s">
+        <v>215</v>
+      </c>
+      <c r="D178" t="s">
+        <v>367</v>
+      </c>
+      <c r="E178" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>74</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>215</v>
+      </c>
+      <c r="D179" t="s">
+        <v>368</v>
+      </c>
+      <c r="E179" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>35</v>
       </c>
-      <c r="B155" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="B180" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" t="s">
+        <v>369</v>
+      </c>
+      <c r="E180" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" t="s">
+        <v>225</v>
+      </c>
+      <c r="C181" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" t="s">
+        <v>370</v>
+      </c>
+      <c r="E181" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+      <c r="E182" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>67</v>
+      </c>
+      <c r="B183" t="s">
+        <v>227</v>
+      </c>
+      <c r="C183" t="s">
+        <v>224</v>
+      </c>
+      <c r="D183" t="s">
+        <v>372</v>
+      </c>
+      <c r="E183" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>36</v>
       </c>
-      <c r="B156" t="s">
-        <v>19</v>
-      </c>
-      <c r="C156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>73</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>74</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>76</v>
-      </c>
-      <c r="B160" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>37</v>
-      </c>
-      <c r="B161" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>67</v>
-      </c>
-      <c r="B163" t="s">
-        <v>19</v>
-      </c>
-      <c r="C163" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>69</v>
-      </c>
-      <c r="B165" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>70</v>
-      </c>
-      <c r="B166" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>38</v>
-      </c>
-      <c r="B167" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>77</v>
-      </c>
-      <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>78</v>
-      </c>
-      <c r="B169" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>39</v>
-      </c>
-      <c r="B170" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>82</v>
-      </c>
-      <c r="B171" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>83</v>
-      </c>
-      <c r="B172" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>84</v>
-      </c>
-      <c r="B173" t="s">
-        <v>19</v>
-      </c>
-      <c r="C173" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>85</v>
-      </c>
-      <c r="B174" t="s">
-        <v>19</v>
-      </c>
-      <c r="C174" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>86</v>
-      </c>
-      <c r="B175" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>40</v>
-      </c>
-      <c r="B178" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>79</v>
-      </c>
-      <c r="B179" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>80</v>
-      </c>
-      <c r="B180" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>81</v>
-      </c>
-      <c r="B181" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>41</v>
-      </c>
-      <c r="B182" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" t="s">
-        <v>292</v>
+      <c r="B184" t="s">
+        <v>228</v>
+      </c>
+      <c r="C184" t="s">
+        <v>229</v>
+      </c>
+      <c r="D184" t="s">
+        <v>373</v>
+      </c>
+      <c r="E184" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
